--- a/backend/data/atlas/processed/gov_spending/gov_state.xlsx
+++ b/backend/data/atlas/processed/gov_spending/gov_state.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="82">
   <si>
     <t>state</t>
   </si>
@@ -106,6 +106,9 @@
     <t>Revenue_per_capita</t>
   </si>
   <si>
+    <t>Year</t>
+  </si>
+  <si>
     <t>alabama</t>
   </si>
   <si>
@@ -254,6 +257,9 @@
   </si>
   <si>
     <t>wyoming</t>
+  </si>
+  <si>
+    <t>Fiscal Year 2023</t>
   </si>
 </sst>
 </file>
@@ -611,13 +617,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AD51"/>
+  <dimension ref="A1:AE51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:30">
+    <row r="1" spans="1:31">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -708,10 +714,13 @@
       <c r="AD1" s="1" t="s">
         <v>29</v>
       </c>
+      <c r="AE1" s="1" t="s">
+        <v>30</v>
+      </c>
     </row>
-    <row r="2" spans="1:30">
+    <row r="2" spans="1:31">
       <c r="A2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B2">
         <v>4175908908</v>
@@ -800,10 +809,13 @@
       <c r="AD2">
         <v>497.0837691149004</v>
       </c>
+      <c r="AE2" t="s">
+        <v>81</v>
+      </c>
     </row>
-    <row r="3" spans="1:30">
+    <row r="3" spans="1:31">
       <c r="A3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B3">
         <v>2054319680</v>
@@ -892,10 +904,13 @@
       <c r="AD3">
         <v>2678.014450937988</v>
       </c>
+      <c r="AE3" t="s">
+        <v>81</v>
+      </c>
     </row>
-    <row r="4" spans="1:30">
+    <row r="4" spans="1:31">
       <c r="A4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B4">
         <v>7752585039</v>
@@ -984,10 +999,13 @@
       <c r="AD4">
         <v>956.8427227995442</v>
       </c>
+      <c r="AE4" t="s">
+        <v>81</v>
+      </c>
     </row>
-    <row r="5" spans="1:30">
+    <row r="5" spans="1:31">
       <c r="A5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B5">
         <v>387802955</v>
@@ -1076,10 +1094,13 @@
       <c r="AD5">
         <v>186.3665056756393</v>
       </c>
+      <c r="AE5" t="s">
+        <v>81</v>
+      </c>
     </row>
-    <row r="6" spans="1:30">
+    <row r="6" spans="1:31">
       <c r="A6" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B6">
         <v>154300485231</v>
@@ -1168,10 +1189,13 @@
       <c r="AD6">
         <v>2955.577328571385</v>
       </c>
+      <c r="AE6" t="s">
+        <v>81</v>
+      </c>
     </row>
-    <row r="7" spans="1:30">
+    <row r="7" spans="1:31">
       <c r="A7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B7">
         <v>18205740598</v>
@@ -1260,10 +1284,13 @@
       <c r="AD7">
         <v>2109.721180750744</v>
       </c>
+      <c r="AE7" t="s">
+        <v>81</v>
+      </c>
     </row>
-    <row r="8" spans="1:30">
+    <row r="8" spans="1:31">
       <c r="A8" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B8">
         <v>1570674635</v>
@@ -1352,10 +1379,13 @@
       <c r="AD8">
         <v>665.9826527818885</v>
       </c>
+      <c r="AE8" t="s">
+        <v>81</v>
+      </c>
     </row>
-    <row r="9" spans="1:30">
+    <row r="9" spans="1:31">
       <c r="A9" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B9">
         <v>19832339000</v>
@@ -1444,10 +1474,13 @@
       <c r="AD9">
         <v>27932.79056074577</v>
       </c>
+      <c r="AE9" t="s">
+        <v>81</v>
+      </c>
     </row>
-    <row r="10" spans="1:30">
+    <row r="10" spans="1:31">
       <c r="A10" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B10">
         <v>76136644395</v>
@@ -1536,10 +1569,13 @@
       <c r="AD10">
         <v>2569.225718755297</v>
       </c>
+      <c r="AE10" t="s">
+        <v>81</v>
+      </c>
     </row>
-    <row r="11" spans="1:30">
+    <row r="11" spans="1:31">
       <c r="A11" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B11">
         <v>16901422505</v>
@@ -1628,10 +1664,13 @@
       <c r="AD11">
         <v>1502.880213480616</v>
       </c>
+      <c r="AE11" t="s">
+        <v>81</v>
+      </c>
     </row>
-    <row r="12" spans="1:30">
+    <row r="12" spans="1:31">
       <c r="A12" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B12">
         <v>4021054584</v>
@@ -1720,10 +1759,13 @@
       <c r="AD12">
         <v>5067.986858628839</v>
       </c>
+      <c r="AE12" t="s">
+        <v>81</v>
+      </c>
     </row>
-    <row r="13" spans="1:30">
+    <row r="13" spans="1:31">
       <c r="A13" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B13">
         <v>1080793891</v>
@@ -1812,10 +1854,13 @@
       <c r="AD13">
         <v>829.5231364173189</v>
       </c>
+      <c r="AE13" t="s">
+        <v>81</v>
+      </c>
     </row>
-    <row r="14" spans="1:30">
+    <row r="14" spans="1:31">
       <c r="A14" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B14">
         <v>25613027396</v>
@@ -1904,10 +1949,13 @@
       <c r="AD14">
         <v>1067.603844045036</v>
       </c>
+      <c r="AE14" t="s">
+        <v>81</v>
+      </c>
     </row>
-    <row r="15" spans="1:30">
+    <row r="15" spans="1:31">
       <c r="A15" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B15">
         <v>3125828146</v>
@@ -1996,10 +2044,13 @@
       <c r="AD15">
         <v>1360.425134415654</v>
       </c>
+      <c r="AE15" t="s">
+        <v>81</v>
+      </c>
     </row>
-    <row r="16" spans="1:30">
+    <row r="16" spans="1:31">
       <c r="A16" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B16">
         <v>2035096272</v>
@@ -2088,10 +2139,13 @@
       <c r="AD16">
         <v>994.9128051420179</v>
       </c>
+      <c r="AE16" t="s">
+        <v>81</v>
+      </c>
     </row>
-    <row r="17" spans="1:30">
+    <row r="17" spans="1:31">
       <c r="A17" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B17">
         <v>5257574357</v>
@@ -2180,10 +2234,13 @@
       <c r="AD17">
         <v>1541.518791141948</v>
       </c>
+      <c r="AE17" t="s">
+        <v>81</v>
+      </c>
     </row>
-    <row r="18" spans="1:30">
+    <row r="18" spans="1:31">
       <c r="A18" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B18">
         <v>633924899</v>
@@ -2272,10 +2329,13 @@
       <c r="AD18">
         <v>457.5505621447078</v>
       </c>
+      <c r="AE18" t="s">
+        <v>81</v>
+      </c>
     </row>
-    <row r="19" spans="1:30">
+    <row r="19" spans="1:31">
       <c r="A19" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B19">
         <v>2727953964</v>
@@ -2364,10 +2424,13 @@
       <c r="AD19">
         <v>770.9520093162902</v>
       </c>
+      <c r="AE19" t="s">
+        <v>81</v>
+      </c>
     </row>
-    <row r="20" spans="1:30">
+    <row r="20" spans="1:31">
       <c r="A20" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B20">
         <v>137678369</v>
@@ -2456,10 +2519,13 @@
       <c r="AD20">
         <v>143.8362282277345</v>
       </c>
+      <c r="AE20" t="s">
+        <v>81</v>
+      </c>
     </row>
-    <row r="21" spans="1:30">
+    <row r="21" spans="1:31">
       <c r="A21" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B21">
         <v>56874205850</v>
@@ -2548,10 +2614,13 @@
       <c r="AD21">
         <v>4627.53256676305</v>
       </c>
+      <c r="AE21" t="s">
+        <v>81</v>
+      </c>
     </row>
-    <row r="22" spans="1:30">
+    <row r="22" spans="1:31">
       <c r="A22" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B22">
         <v>472858883</v>
@@ -2640,10 +2709,13 @@
       <c r="AD22">
         <v>35.83355995896983</v>
       </c>
+      <c r="AE22" t="s">
+        <v>81</v>
+      </c>
     </row>
-    <row r="23" spans="1:30">
+    <row r="23" spans="1:31">
       <c r="A23" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B23">
         <v>9140575856</v>
@@ -2732,10 +2804,13 @@
       <c r="AD23">
         <v>900.9859698878423</v>
       </c>
+      <c r="AE23" t="s">
+        <v>81</v>
+      </c>
     </row>
-    <row r="24" spans="1:30">
+    <row r="24" spans="1:31">
       <c r="A24" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B24">
         <v>8887326771</v>
@@ -2824,10 +2899,13 @@
       <c r="AD24">
         <v>2058.610370903096</v>
       </c>
+      <c r="AE24" t="s">
+        <v>81</v>
+      </c>
     </row>
-    <row r="25" spans="1:30">
+    <row r="25" spans="1:31">
       <c r="A25" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B25">
         <v>1827401296</v>
@@ -2916,10 +2994,13 @@
       <c r="AD25">
         <v>411.6792797593479</v>
       </c>
+      <c r="AE25" t="s">
+        <v>81</v>
+      </c>
     </row>
-    <row r="26" spans="1:30">
+    <row r="26" spans="1:31">
       <c r="A26" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B26">
         <v>11817803200</v>
@@ -3008,10 +3089,13 @@
       <c r="AD26">
         <v>1041.289336243118</v>
       </c>
+      <c r="AE26" t="s">
+        <v>81</v>
+      </c>
     </row>
-    <row r="27" spans="1:30">
+    <row r="27" spans="1:31">
       <c r="A27" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B27">
         <v>868370046</v>
@@ -3100,10 +3184,13 @@
       <c r="AD27">
         <v>1067.886511261055</v>
       </c>
+      <c r="AE27" t="s">
+        <v>81</v>
+      </c>
     </row>
-    <row r="28" spans="1:30">
+    <row r="28" spans="1:31">
       <c r="A28" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B28">
         <v>1140093101</v>
@@ -3192,10 +3279,13 @@
       <c r="AD28">
         <v>965.8918010756114</v>
       </c>
+      <c r="AE28" t="s">
+        <v>81</v>
+      </c>
     </row>
-    <row r="29" spans="1:30">
+    <row r="29" spans="1:31">
       <c r="A29" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B29">
         <v>13189179627</v>
@@ -3284,10 +3374,13 @@
       <c r="AD29">
         <v>2764.013647385319</v>
       </c>
+      <c r="AE29" t="s">
+        <v>81</v>
+      </c>
     </row>
-    <row r="30" spans="1:30">
+    <row r="30" spans="1:31">
       <c r="A30" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B30">
         <v>800385479</v>
@@ -3376,10 +3469,13 @@
       <c r="AD30">
         <v>484.5428734869526</v>
       </c>
+      <c r="AE30" t="s">
+        <v>81</v>
+      </c>
     </row>
-    <row r="31" spans="1:30">
+    <row r="31" spans="1:31">
       <c r="A31" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B31">
         <v>29613022763</v>
@@ -3468,10 +3564,13 @@
       <c r="AD31">
         <v>1018.206523263837</v>
       </c>
+      <c r="AE31" t="s">
+        <v>81</v>
+      </c>
     </row>
-    <row r="32" spans="1:30">
+    <row r="32" spans="1:31">
       <c r="A32" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B32">
         <v>2825372206</v>
@@ -3560,10 +3659,13 @@
       <c r="AD32">
         <v>1401.27116065108</v>
       </c>
+      <c r="AE32" t="s">
+        <v>81</v>
+      </c>
     </row>
-    <row r="33" spans="1:30">
+    <row r="33" spans="1:31">
       <c r="A33" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B33">
         <v>55336798755</v>
@@ -3652,10 +3754,13 @@
       <c r="AD33">
         <v>1471.591444085335</v>
       </c>
+      <c r="AE33" t="s">
+        <v>81</v>
+      </c>
     </row>
-    <row r="34" spans="1:30">
+    <row r="34" spans="1:31">
       <c r="A34" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B34">
         <v>26756153304</v>
@@ -3744,10 +3849,13 @@
       <c r="AD34">
         <v>1942.498082076254</v>
       </c>
+      <c r="AE34" t="s">
+        <v>81</v>
+      </c>
     </row>
-    <row r="35" spans="1:30">
+    <row r="35" spans="1:31">
       <c r="A35" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B35">
         <v>406010538</v>
@@ -3836,10 +3944,13 @@
       <c r="AD35">
         <v>883.2621940184138</v>
       </c>
+      <c r="AE35" t="s">
+        <v>81</v>
+      </c>
     </row>
-    <row r="36" spans="1:30">
+    <row r="36" spans="1:31">
       <c r="A36" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B36">
         <v>15633263048</v>
@@ -3928,10 +4039,13 @@
       <c r="AD36">
         <v>1318.731748141893</v>
       </c>
+      <c r="AE36" t="s">
+        <v>81</v>
+      </c>
     </row>
-    <row r="37" spans="1:30">
+    <row r="37" spans="1:31">
       <c r="A37" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B37">
         <v>829050294</v>
@@ -4020,10 +4134,13 @@
       <c r="AD37">
         <v>229.552859958961</v>
       </c>
+      <c r="AE37" t="s">
+        <v>81</v>
+      </c>
     </row>
-    <row r="38" spans="1:30">
+    <row r="38" spans="1:31">
       <c r="A38" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B38">
         <v>5759509087</v>
@@ -4112,10 +4229,13 @@
       <c r="AD38">
         <v>1717.126609666412</v>
       </c>
+      <c r="AE38" t="s">
+        <v>81</v>
+      </c>
     </row>
-    <row r="39" spans="1:30">
+    <row r="39" spans="1:31">
       <c r="A39" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B39">
         <v>33873545372</v>
@@ -4204,10 +4324,13 @@
       <c r="AD39">
         <v>1770.570842769522</v>
       </c>
+      <c r="AE39" t="s">
+        <v>81</v>
+      </c>
     </row>
-    <row r="40" spans="1:30">
+    <row r="40" spans="1:31">
       <c r="A40" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B40">
         <v>0</v>
@@ -4296,10 +4419,13 @@
       <c r="AD40">
         <v>0</v>
       </c>
+      <c r="AE40" t="s">
+        <v>81</v>
+      </c>
     </row>
-    <row r="41" spans="1:30">
+    <row r="41" spans="1:31">
       <c r="A41" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B41">
         <v>9378687780</v>
@@ -4388,10 +4514,13 @@
       <c r="AD41">
         <v>1383.298967515228</v>
       </c>
+      <c r="AE41" t="s">
+        <v>81</v>
+      </c>
     </row>
-    <row r="42" spans="1:30">
+    <row r="42" spans="1:31">
       <c r="A42" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B42">
         <v>308860834</v>
@@ -4480,10 +4609,13 @@
       <c r="AD42">
         <v>516.6524194883068</v>
       </c>
+      <c r="AE42" t="s">
+        <v>81</v>
+      </c>
     </row>
-    <row r="43" spans="1:30">
+    <row r="43" spans="1:31">
       <c r="A43" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B43">
         <v>10836219723</v>
@@ -4572,10 +4704,13 @@
       <c r="AD43">
         <v>1192.987106609386</v>
       </c>
+      <c r="AE43" t="s">
+        <v>81</v>
+      </c>
     </row>
-    <row r="44" spans="1:30">
+    <row r="44" spans="1:31">
       <c r="A44" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B44">
         <v>35795141045</v>
@@ -4664,10 +4799,13 @@
       <c r="AD44">
         <v>779.9597778423429</v>
       </c>
+      <c r="AE44" t="s">
+        <v>81</v>
+      </c>
     </row>
-    <row r="45" spans="1:30">
+    <row r="45" spans="1:31">
       <c r="A45" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B45">
         <v>2106613167</v>
@@ -4756,10 +4894,13 @@
       <c r="AD45">
         <v>1143.180095206831</v>
       </c>
+      <c r="AE45" t="s">
+        <v>81</v>
+      </c>
     </row>
-    <row r="46" spans="1:30">
+    <row r="46" spans="1:31">
       <c r="A46" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B46">
         <v>0</v>
@@ -4848,10 +4989,13 @@
       <c r="AD46">
         <v>0</v>
       </c>
+      <c r="AE46" t="s">
+        <v>81</v>
+      </c>
     </row>
-    <row r="47" spans="1:30">
+    <row r="47" spans="1:31">
       <c r="A47" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B47">
         <v>41510908739</v>
@@ -4940,10 +5084,13 @@
       <c r="AD47">
         <v>3339.568392773852</v>
       </c>
+      <c r="AE47" t="s">
+        <v>81</v>
+      </c>
     </row>
-    <row r="48" spans="1:30">
+    <row r="48" spans="1:31">
       <c r="A48" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B48">
         <v>11378411384</v>
@@ -5032,10 +5179,13 @@
       <c r="AD48">
         <v>1540.069453970781</v>
       </c>
+      <c r="AE48" t="s">
+        <v>81</v>
+      </c>
     </row>
-    <row r="49" spans="1:30">
+    <row r="49" spans="1:31">
       <c r="A49" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B49">
         <v>349133106</v>
@@ -5124,10 +5274,13 @@
       <c r="AD49">
         <v>315.0379899397641</v>
       </c>
+      <c r="AE49" t="s">
+        <v>81</v>
+      </c>
     </row>
-    <row r="50" spans="1:30">
+    <row r="50" spans="1:31">
       <c r="A50" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B50">
         <v>8287170807</v>
@@ -5216,10 +5369,13 @@
       <c r="AD50">
         <v>1423.40094524261</v>
       </c>
+      <c r="AE50" t="s">
+        <v>81</v>
+      </c>
     </row>
-    <row r="51" spans="1:30">
+    <row r="51" spans="1:31">
       <c r="A51" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B51">
         <v>631618639</v>
@@ -5307,6 +5463,9 @@
       </c>
       <c r="AD51">
         <v>1573.395506876293</v>
+      </c>
+      <c r="AE51" t="s">
+        <v>81</v>
       </c>
     </row>
   </sheetData>

--- a/backend/data/atlas/processed/gov_spending/gov_state.xlsx
+++ b/backend/data/atlas/processed/gov_spending/gov_state.xlsx
@@ -266,16 +266,8 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <fonts count="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -291,7 +283,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -299,30 +291,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -624,97 +598,97 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:31">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="N1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="O1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="P1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="Q1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="R1" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="S1" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="T1" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="U1" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="V1" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="W1" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="X1" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="Y1" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="Z1" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AA1" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AB1" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AC1" t="s">
         <v>28</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="AD1" t="s">
         <v>29</v>
       </c>
-      <c r="AE1" s="1" t="s">
+      <c r="AE1" t="s">
         <v>30</v>
       </c>
     </row>
